--- a/case/CaseEntity.xlsx
+++ b/case/CaseEntity.xlsx
@@ -1,180 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_spaces\pythonProject\APIInterFace\case\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D020B1-ADF6-4888-BB17-55B286087414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="测试案例" sheetId="1" r:id="rId1"/>
+    <sheet name="测试案例" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>isRun</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>dependentId</t>
-  </si>
-  <si>
-    <t>dependentPara</t>
-  </si>
-  <si>
-    <t>dependentData</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>exceptResult</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>执行结果</t>
-  </si>
-  <si>
-    <t>0000001</t>
-  </si>
-  <si>
-    <t>测试案例001</t>
-  </si>
-  <si>
-    <t>https://www.fastmock.site/mock/db8122608751bfc0a73df8b9e3da74ad/test/api/user</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>"code": "200",</t>
-  </si>
-  <si>
-    <t>0000002</t>
-  </si>
-  <si>
-    <t>测试案例002</t>
-  </si>
-  <si>
-    <t>https://www.fastmock.site/mock/db8122608751bfc0a73df8b9e3da74ad/test/api/test</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>0000003</t>
-  </si>
-  <si>
-    <t>测试案例003</t>
-  </si>
-  <si>
-    <t>0000004</t>
-  </si>
-  <si>
-    <t>测试案例004</t>
-  </si>
-  <si>
-    <t>test004</t>
-  </si>
-  <si>
-    <t>0000005</t>
-  </si>
-  <si>
-    <t>测试案例005</t>
-  </si>
-  <si>
-    <t>$.data.person[*].name</t>
-  </si>
-  <si>
-    <t>test005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.8000000000000007"/>
-      <color theme="1"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="9.800000000000001"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF871094"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <color rgb="FF871094"/>
+      <sz val="9.800000000000001"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -225,44 +106,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -550,230 +490,365 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="6.08984375" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" customWidth="1"/>
-    <col min="10" max="10" width="21.90625" customWidth="1"/>
-    <col min="11" max="12" width="16.453125" customWidth="1"/>
+    <col width="13.7265625" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="3" max="3"/>
+    <col width="6.08984375" customWidth="1" min="4" max="4"/>
+    <col width="10.453125" customWidth="1" min="7" max="7"/>
+    <col width="18.54296875" customWidth="1" min="8" max="8"/>
+    <col width="13.6328125" customWidth="1" min="9" max="9"/>
+    <col width="21.90625" customWidth="1" min="10" max="10"/>
+    <col width="16.453125" customWidth="1" min="11" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>12</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>isRun</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>dependentId</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>dependentPara</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>dependentData</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>exceptResult</t>
+        </is>
+      </c>
+      <c r="L1" s="7" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="M1" s="7" t="inlineStr">
+        <is>
+          <t>执行结果</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8"/>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>0000001</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>测试案例001</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fastmock.site/mock/db8122608751bfc0a73df8b9e3da74ad/test/api/user</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="6" t="n"/>
+      <c r="J2" s="6" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="K2" s="6" t="inlineStr">
+        <is>
+          <t>"code": "200",</t>
+        </is>
+      </c>
+      <c r="L2" s="6" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="n"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="4"/>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>0000002</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>测试案例002</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fastmock.site/mock/db8122608751bfc0a73df8b9e3da74ad/test/api/test</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="6" t="n"/>
+      <c r="J3" s="6" t="inlineStr">
+        <is>
+          <t>test002</t>
+        </is>
+      </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>"code": "200",</t>
+        </is>
+      </c>
+      <c r="L3" s="6" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="n"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="4"/>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>0000003</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>测试案例003</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fastmock.site/mock/db8122608751bfc0a73df8b9e3da74ad/test/api/user</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="6" t="n"/>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>test003</t>
+        </is>
+      </c>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>"code": "200",</t>
+        </is>
+      </c>
+      <c r="L4" s="6" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="n"/>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="4"/>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>0000004</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>测试案例004</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fastmock.site/mock/db8122608751bfc0a73df8b9e3da74ad/test/api/test</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="6" t="n"/>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>test004</t>
+        </is>
+      </c>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>"code": "200",</t>
+        </is>
+      </c>
+      <c r="L5" s="6" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="n"/>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="4"/>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>0000005</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>测试案例005</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fastmock.site/mock/db8122608751bfc0a73df8b9e3da74ad/test/api/user</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>0000004</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>$.data.person[*].name</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>$.data.person[*].name</t>
+        </is>
+      </c>
+      <c r="J6" s="9" t="inlineStr">
+        <is>
+          <t>test005</t>
+        </is>
+      </c>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>"code": "200",</t>
+        </is>
+      </c>
+      <c r="L6" s="6" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>
 </file>
--- a/case/CaseEntity.xlsx
+++ b/case/CaseEntity.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -822,12 +822,12 @@
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>$.data.person[*].name</t>
+          <t>$.data.person[0].name,$.data.person[1].dependid</t>
         </is>
       </c>
       <c r="I6" s="6" t="inlineStr">
         <is>
-          <t>$.data.person[*].name</t>
+          <t>$.reauest.person[0].item1,$.reauest.person[1].item2</t>
         </is>
       </c>
       <c r="J6" s="9" t="inlineStr">

--- a/case/CaseEntity.xlsx
+++ b/case/CaseEntity.xlsx
@@ -6,7 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="测试案例" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="module1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="module2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -498,7 +499,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -851,4 +852,185 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>isRun</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>dependentId</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>dependentPara</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>dependentData</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>exceptResult</t>
+        </is>
+      </c>
+      <c r="L1" s="7" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="M1" s="7" t="inlineStr">
+        <is>
+          <t>执行结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>m0000001</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>测试案例001</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fastmock.site/mock/db8122608751bfc0a73df8b9e3da74ad/test/api/user</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="6" t="n"/>
+      <c r="J2" s="6" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="K2" s="6" t="inlineStr">
+        <is>
+          <t>"code": "200",</t>
+        </is>
+      </c>
+      <c r="L2" s="6" t="n"/>
+      <c r="M2" s="8" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>m0000002</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>测试案例002</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fastmock.site/mock/db8122608751bfc0a73df8b9e3da74ad/test/api/test</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="6" t="n"/>
+      <c r="J3" s="6" t="inlineStr">
+        <is>
+          <t>test002</t>
+        </is>
+      </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>"code": "200",</t>
+        </is>
+      </c>
+      <c r="L3" s="6" t="n"/>
+      <c r="M3" s="4" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
+</worksheet>
 </file>
--- a/case/CaseEntity.xlsx
+++ b/case/CaseEntity.xlsx
@@ -499,7 +499,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L2" sqref="L2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -863,7 +863,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -979,7 +979,11 @@
           <t>"code": "200",</t>
         </is>
       </c>
-      <c r="L2" s="6" t="n"/>
+      <c r="L2" s="6" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
       <c r="M2" s="8" t="n"/>
     </row>
     <row r="3">
@@ -1026,7 +1030,11 @@
           <t>"code": "200",</t>
         </is>
       </c>
-      <c r="L3" s="6" t="n"/>
+      <c r="L3" s="6" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
       <c r="M3" s="4" t="n"/>
     </row>
   </sheetData>

--- a/case/CaseEntity.xlsx
+++ b/case/CaseEntity.xlsx
@@ -860,7 +860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L3"/>
@@ -1037,6 +1037,27 @@
       </c>
       <c r="M3" s="4" t="n"/>
     </row>
+    <row r="4">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
